--- a/蓝鲸导表/INDEX/INDEX.xlsx
+++ b/蓝鲸导表/INDEX/INDEX.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,15 +167,63 @@
     <t>ID</t>
   </si>
   <si>
+    <t>#note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼怪</t>
+  </si>
+  <si>
+    <t>个人BOSS</t>
+  </si>
+  <si>
+    <t>属性模拟</t>
+  </si>
+  <si>
+    <t>怪物模板</t>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardmon_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill.技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>skill_effect_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skill_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_old.技能</t>
+    <t>skill.技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,11 +231,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
+    <t>skill_effect_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_condition_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -195,6 +243,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>mon_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>monster.怪物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,28 +259,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼怪</t>
-  </si>
-  <si>
-    <t>个人BOSS</t>
-  </si>
-  <si>
-    <t>cardmon_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性模拟</t>
-  </si>
-  <si>
-    <t>怪物模板</t>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arena.竞技场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DetailType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCondition</t>
   </si>
 </sst>
 </file>
@@ -553,15 +600,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:H15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="9.75" customWidth="1"/>
@@ -806,13 +853,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -821,24 +868,24 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -847,116 +894,194 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G12">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G13">
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G14">
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
         <v>54</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
         <v>11</v>
       </c>
     </row>

--- a/蓝鲸导表/INDEX/INDEX.xlsx
+++ b/蓝鲸导表/INDEX/INDEX.xlsx
@@ -177,9 +177,6 @@
     <t>个人BOSS</t>
   </si>
   <si>
-    <t>属性模拟</t>
-  </si>
-  <si>
     <t>怪物模板</t>
   </si>
   <si>
@@ -276,6 +273,10 @@
   </si>
   <si>
     <t>EffectCondition</t>
+  </si>
+  <si>
+    <t>属性模拟-新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -603,7 +604,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -853,13 +854,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -868,24 +869,24 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -894,24 +895,24 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -920,24 +921,24 @@
         <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -946,47 +947,47 @@
         <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13">
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14">
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
         <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -995,24 +996,24 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15">
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
         <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -1021,59 +1022,59 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
         <v>63</v>
       </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17">
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
         <v>42</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
       </c>
       <c r="F18" t="s">
         <v>38</v>

--- a/蓝鲸导表/INDEX/INDEX.xlsx
+++ b/蓝鲸导表/INDEX/INDEX.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -601,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -672,7 +672,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -698,19 +698,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -724,39 +724,39 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -765,33 +765,33 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -802,19 +802,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -828,13 +828,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -843,24 +843,24 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -869,24 +869,24 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -906,13 +906,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -927,24 +927,24 @@
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
         <v>53</v>
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -964,7 +964,7 @@
         <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -979,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -990,13 +990,13 @@
         <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
         <v>53</v>
@@ -1010,13 +1010,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1036,53 +1036,27 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="H18" t="s">
         <v>11</v>
       </c>
     </row>

--- a/蓝鲸导表/INDEX/INDEX.xlsx
+++ b/蓝鲸导表/INDEX/INDEX.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,230 +53,249 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop.掉落表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card.卡牌表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property.属性</t>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnName</t>
+  </si>
+  <si>
+    <t>card_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve.成就</t>
+  </si>
+  <si>
+    <t>成就条件类型</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>condition_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapter.章节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle.战场配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼怪</t>
+  </si>
+  <si>
+    <t>个人BOSS</t>
+  </si>
+  <si>
+    <t>怪物模板</t>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardmon_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill.技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_effect_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill.技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_effect_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_condition_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DetailType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCondition</t>
+  </si>
+  <si>
+    <t>eqp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eqp.装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_jump_id</t>
+  </si>
+  <si>
+    <t>item.道具</t>
+  </si>
+  <si>
+    <t>材料跳转</t>
+  </si>
+  <si>
+    <t>#note</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>mon_id</t>
+  </si>
+  <si>
+    <t>monster.怪物</t>
+  </si>
+  <si>
+    <t>主线怪物</t>
+  </si>
+  <si>
+    <t>arena.竞技场</t>
+  </si>
+  <si>
+    <t>机器人卡</t>
+  </si>
+  <si>
+    <t>测试怪</t>
+  </si>
+  <si>
+    <t>日常本</t>
+  </si>
+  <si>
+    <t>属性模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>item_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item.道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drop_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drop.掉落表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card.卡牌表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>property.属性</t>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnName</t>
-  </si>
-  <si>
-    <t>card_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieve.成就</t>
-  </si>
-  <si>
-    <t>成就条件类型</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>condition_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chapter.章节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battle.战场配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战场角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼怪</t>
-  </si>
-  <si>
-    <t>个人BOSS</t>
-  </si>
-  <si>
-    <t>怪物模板</t>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardmon_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill.技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_effect_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill.技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_effect_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_condition_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mon_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mon_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster.怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arena.竞技场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DetailType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectCondition</t>
-  </si>
-  <si>
-    <t>属性模拟-新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备道具</t>
+  </si>
+  <si>
+    <t>卡牌道具</t>
+  </si>
+  <si>
+    <t>插槽技能道具</t>
   </si>
 </sst>
 </file>
@@ -601,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -646,418 +665,600 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G13">
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
         <v>66</v>
       </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
         <v>38</v>
       </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17" t="s">
-        <v>11</v>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/蓝鲸导表/INDEX/INDEX.xlsx
+++ b/蓝鲸导表/INDEX/INDEX.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="83">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,237 +65,253 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>attr_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property.属性</t>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnName</t>
+  </si>
+  <si>
+    <t>achieve.成就</t>
+  </si>
+  <si>
+    <t>成就条件类型</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>condition_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapter.章节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle.战场配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼怪</t>
+  </si>
+  <si>
+    <t>个人BOSS</t>
+  </si>
+  <si>
+    <t>怪物模板</t>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardmon_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill.技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_effect_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill.技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_effect_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_condition_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DetailType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCondition</t>
+  </si>
+  <si>
+    <t>eqp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eqp.装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.道具</t>
+  </si>
+  <si>
+    <t>材料跳转</t>
+  </si>
+  <si>
+    <t>#note</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>mon_id</t>
+  </si>
+  <si>
+    <t>monster.怪物</t>
+  </si>
+  <si>
+    <t>主线怪物</t>
+  </si>
+  <si>
+    <t>arena.竞技场</t>
+  </si>
+  <si>
+    <t>机器人卡</t>
+  </si>
+  <si>
+    <t>测试怪</t>
+  </si>
+  <si>
+    <t>日常本</t>
+  </si>
+  <si>
+    <t>属性模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>装备道具</t>
+  </si>
+  <si>
+    <t>卡牌道具</t>
+  </si>
+  <si>
+    <t>插槽技能道具</t>
+  </si>
+  <si>
+    <t>神器</t>
+  </si>
+  <si>
+    <t>礼包</t>
+  </si>
+  <si>
+    <t>探查剧情道具</t>
+  </si>
+  <si>
+    <t>card_id</t>
+  </si>
+  <si>
+    <t>card.卡牌表</t>
+  </si>
+  <si>
+    <t>卡牌</t>
+  </si>
+  <si>
+    <t>传记副本</t>
+  </si>
+  <si>
     <t>drop_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>drop.掉落表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card.卡牌表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>掉落组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>property.属性</t>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnName</t>
-  </si>
-  <si>
-    <t>card_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieve.成就</t>
-  </si>
-  <si>
-    <t>成就条件类型</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>condition_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chapter.章节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battle.战场配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战场角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼怪</t>
-  </si>
-  <si>
-    <t>个人BOSS</t>
-  </si>
-  <si>
-    <t>怪物模板</t>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardmon_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill.技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_effect_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill.技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_effect_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_condition_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DetailType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectCondition</t>
-  </si>
-  <si>
-    <t>eqp_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eqp.装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>polymerized_drop</t>
+  </si>
+  <si>
+    <t>draw.抽卡</t>
+  </si>
+  <si>
+    <t>聚合掉落</t>
   </si>
   <si>
     <t>item_jump_id</t>
-  </si>
-  <si>
-    <t>item.道具</t>
-  </si>
-  <si>
-    <t>材料跳转</t>
-  </si>
-  <si>
-    <t>#note</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>mon_id</t>
-  </si>
-  <si>
-    <t>monster.怪物</t>
-  </si>
-  <si>
-    <t>主线怪物</t>
-  </si>
-  <si>
-    <t>arena.竞技场</t>
-  </si>
-  <si>
-    <t>机器人卡</t>
-  </si>
-  <si>
-    <t>测试怪</t>
-  </si>
-  <si>
-    <t>日常本</t>
-  </si>
-  <si>
-    <t>属性模拟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>道具</t>
-  </si>
-  <si>
-    <t>装备道具</t>
-  </si>
-  <si>
-    <t>卡牌道具</t>
-  </si>
-  <si>
-    <t>插槽技能道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump.跳转表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -620,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -665,230 +681,230 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G8">
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -899,366 +915,496 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G12">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="G14">
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="G15">
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="G17">
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G19">
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G20">
         <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G21">
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G23">
         <v>4</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
         <v>58</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>59</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
         <v>60</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
         <v>61</v>
       </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
         <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/蓝鲸导表/INDEX/INDEX.xlsx
+++ b/蓝鲸导表/INDEX/INDEX.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,21 +61,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>property.属性</t>
   </si>
   <si>
-    <t>属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EnName</t>
   </si>
   <si>
@@ -86,51 +74,15 @@
   </si>
   <si>
     <t>Condition</t>
-  </si>
-  <si>
-    <t>condition_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chapter.章节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>role_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battle.战场配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战场角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>#note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>芦花古楼怪</t>
   </si>
   <si>
@@ -138,81 +90,16 @@
   </si>
   <si>
     <t>怪物模板</t>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cardmon_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skill_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill.技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_effect_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill.技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_effect_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_condition_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DetailType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EffectCondition</t>
   </si>
   <si>
-    <t>eqp_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eqp.装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>item_jump_id</t>
   </si>
   <si>
     <t>item.道具</t>
@@ -285,40 +172,191 @@
     <t>卡牌</t>
   </si>
   <si>
+    <t>eqp_id</t>
+  </si>
+  <si>
+    <t>eqp.装备</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>drop_id</t>
+  </si>
+  <si>
+    <t>drop.掉落表</t>
+  </si>
+  <si>
+    <t>掉落组</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>polymerized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_drop</t>
+    </r>
+  </si>
+  <si>
+    <t>draw.抽卡</t>
+  </si>
+  <si>
+    <t>聚合掉落</t>
+  </si>
+  <si>
+    <t>attr_id</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>condition_id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lCondition_id</t>
+    </r>
+  </si>
+  <si>
+    <t>剧情成就类型</t>
+  </si>
+  <si>
+    <t>tlReqId</t>
+  </si>
+  <si>
+    <t>detective.灵探系统</t>
+  </si>
+  <si>
+    <t>灵探系统条件</t>
+  </si>
+  <si>
+    <t>level_id</t>
+  </si>
+  <si>
+    <t>chapter.章节</t>
+  </si>
+  <si>
+    <t>关卡表</t>
+  </si>
+  <si>
+    <t>drill.教学关卡</t>
+  </si>
+  <si>
+    <t>教学关卡</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>battle.战场配置</t>
+  </si>
+  <si>
+    <t>战场角色</t>
+  </si>
+  <si>
+    <t>skill_id</t>
+  </si>
+  <si>
+    <t>skill.技能</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>skill_effect_id</t>
+  </si>
+  <si>
+    <t>技能效果</t>
+  </si>
+  <si>
+    <t>skill_effect_type</t>
+  </si>
+  <si>
+    <t>DetailType</t>
+  </si>
+  <si>
+    <t>effect_condition_id</t>
+  </si>
+  <si>
     <t>传记副本</t>
   </si>
   <si>
-    <t>drop_id</t>
-  </si>
-  <si>
-    <t>drop.掉落表</t>
-  </si>
-  <si>
-    <t>掉落组</t>
-  </si>
-  <si>
-    <t>polymerized_drop</t>
-  </si>
-  <si>
-    <t>draw.抽卡</t>
-  </si>
-  <si>
-    <t>聚合掉落</t>
-  </si>
-  <si>
-    <t>item_jump_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>jump_id</t>
   </si>
   <si>
     <t>jump.跳转表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转类型</t>
+  </si>
+  <si>
+    <t>national_monster国战怪物表</t>
+  </si>
+  <si>
+    <t>怪物表</t>
+  </si>
+  <si>
+    <t>element_id</t>
+  </si>
+  <si>
+    <t>MuPBoss.千机黑刹</t>
+  </si>
+  <si>
+    <t>千机黑刹元素配置表</t>
+  </si>
+  <si>
+    <t>ElementName</t>
+  </si>
+  <si>
+    <t>plot_item_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +366,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -354,8 +400,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -636,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="A2" sqref="A2:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,730 +729,912 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G8">
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>80</v>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>27</v>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G12">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
       <c r="G13">
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G14">
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>20</v>
+      <c r="A15" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G15">
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
-        <v>27</v>
+      <c r="E16" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G17">
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G18">
         <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G19">
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G20">
         <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G23">
         <v>4</v>
       </c>
       <c r="H23" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G25">
         <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G26">
         <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G27">
         <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G28">
         <v>4</v>
       </c>
       <c r="H28" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
         <v>81</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>82</v>
       </c>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="F29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="H29" t="s">
-        <v>54</v>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="2">
+        <v>4</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
